--- a/isi_journals.xlsx
+++ b/isi_journals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193372F2-97AD-4312-9B0B-9C9B50DC4D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442D789-9B00-4998-8715-C84EDD463593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Web of Science Category</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>COMPUTER SCIENCE, INFORMATION SYSTEMS</t>
   </si>
   <si>
-    <t>SCIE</t>
-  </si>
-  <si>
     <t xml:space="preserve">  JOURNAL OF INFORMATION</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>2095-2228</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>9-NA?</t>
   </si>
   <si>
@@ -175,6 +166,51 @@
   </si>
   <si>
     <t>max 12 p</t>
+  </si>
+  <si>
+    <t>COMPUTER SCIENCE, SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/20477481</t>
+  </si>
+  <si>
+    <t>*este listat si in categoria de SOFTWARE ENGINEERING</t>
+  </si>
+  <si>
+    <t>Journal of Software-Evolution and Process</t>
+  </si>
+  <si>
+    <t>2047-7473</t>
+  </si>
+  <si>
+    <t>no open access</t>
+  </si>
+  <si>
+    <t>SCIENCE OF COMPUTER PROGRAMMING</t>
+  </si>
+  <si>
+    <t>0167-6423</t>
+  </si>
+  <si>
+    <t>https://www.journals.elsevier.com/science-of-computer-programming</t>
+  </si>
+  <si>
+    <t>aprox 20</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11086</t>
+  </si>
+  <si>
+    <t>PROGRAMMING AND COMPUTER SOFTWARE</t>
+  </si>
+  <si>
+    <t>0361-7688</t>
+  </si>
+  <si>
+    <t>6p-NA?</t>
+  </si>
+  <si>
+    <t>no info here</t>
   </si>
 </sst>
 </file>
@@ -246,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +298,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,20 +586,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J11"/>
+  <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.77734375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -574,19 +617,16 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -594,31 +634,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>74</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -626,31 +663,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>82</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2">
-        <v>82</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -658,31 +692,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>91</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
-        <v>91</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2">
-        <v>6</v>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -690,178 +721,263 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>106</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2">
-        <v>106</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6</v>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
         <v>107</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2">
         <v>12</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="2">
-        <v>111</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="2">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="2" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2">
+        <v>133</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="2">
-        <v>133</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="2">
         <v>3</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="2">
+        <v>139</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>76</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2">
-        <v>139</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>46</v>
+    </row>
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2">
+        <v>87</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="2">
+        <v>15</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{91EF4FF3-2E8C-4C87-9D68-327FD38C5B33}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{64B47CD3-D62E-452F-B615-9708D06F47AB}"/>
-    <hyperlink ref="I5" r:id="rId3" display="https://www.elsevier.com/journals/data-and-knowledge-engineering/0169-023x/open-access-options" xr:uid="{8D8E691D-815F-42F4-9E8E-1A07A6EA2480}"/>
-    <hyperlink ref="J6" r:id="rId4" xr:uid="{0F0C6874-C046-473C-8EB6-87B489E38FA2}"/>
-    <hyperlink ref="J7" r:id="rId5" xr:uid="{ECC64145-58AD-48C7-A703-685E4CE70FF7}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{52E395C9-0DE1-4A0F-8E97-05F0771C432E}"/>
-    <hyperlink ref="I8" r:id="rId7" xr:uid="{7B717A0F-A936-40F2-B647-4148A4E666E4}"/>
-    <hyperlink ref="J9" r:id="rId8" xr:uid="{14179EF1-1D8F-4A91-B2DE-150DA2FD389B}"/>
-    <hyperlink ref="I9" r:id="rId9" location="Open%20Access%20Option%20For%20Authors" xr:uid="{F5980A65-65CF-4A63-836A-96CC14BBEDC9}"/>
-    <hyperlink ref="J10" r:id="rId10" xr:uid="{F2A881C9-BE88-4505-B246-985EC9AD0F27}"/>
-    <hyperlink ref="I10" r:id="rId11" display="na" xr:uid="{A02FE32E-B94B-4E90-85B0-AB4463960E98}"/>
-    <hyperlink ref="J11" r:id="rId12" location="policy" xr:uid="{FEC5DF99-7F56-42AF-BA03-5D1630362301}"/>
-    <hyperlink ref="I11" r:id="rId13" location="length" xr:uid="{B068DBEE-8A5E-4AED-B698-2AA04DF85899}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{91EF4FF3-2E8C-4C87-9D68-327FD38C5B33}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{64B47CD3-D62E-452F-B615-9708D06F47AB}"/>
+    <hyperlink ref="H5" r:id="rId3" display="https://www.elsevier.com/journals/data-and-knowledge-engineering/0169-023x/open-access-options" xr:uid="{8D8E691D-815F-42F4-9E8E-1A07A6EA2480}"/>
+    <hyperlink ref="I6" r:id="rId4" xr:uid="{0F0C6874-C046-473C-8EB6-87B489E38FA2}"/>
+    <hyperlink ref="I7" r:id="rId5" xr:uid="{ECC64145-58AD-48C7-A703-685E4CE70FF7}"/>
+    <hyperlink ref="I8" r:id="rId6" xr:uid="{52E395C9-0DE1-4A0F-8E97-05F0771C432E}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{7B717A0F-A936-40F2-B647-4148A4E666E4}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{14179EF1-1D8F-4A91-B2DE-150DA2FD389B}"/>
+    <hyperlink ref="H9" r:id="rId9" location="Open%20Access%20Option%20For%20Authors" xr:uid="{F5980A65-65CF-4A63-836A-96CC14BBEDC9}"/>
+    <hyperlink ref="I10" r:id="rId10" xr:uid="{F2A881C9-BE88-4505-B246-985EC9AD0F27}"/>
+    <hyperlink ref="H10" r:id="rId11" display="na" xr:uid="{A02FE32E-B94B-4E90-85B0-AB4463960E98}"/>
+    <hyperlink ref="I11" r:id="rId12" location="policy" xr:uid="{FEC5DF99-7F56-42AF-BA03-5D1630362301}"/>
+    <hyperlink ref="I12" r:id="rId13" xr:uid="{669F95A4-1981-4494-BA12-B5BD6E78D80A}"/>
+    <hyperlink ref="H11" r:id="rId14" display="na" xr:uid="{D8EB22A8-F538-431D-8C94-30AD36892B2E}"/>
+    <hyperlink ref="H13" r:id="rId15" xr:uid="{15A2BDEF-ABA6-49E1-9D6B-35736AC1E762}"/>
+    <hyperlink ref="I13" r:id="rId16" xr:uid="{8A400415-7994-4FDE-ABB0-4828D72147BE}"/>
+    <hyperlink ref="I14" r:id="rId17" xr:uid="{0E0AC167-9C28-4347-9C29-6B9EFB8D47B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/isi_journals.xlsx
+++ b/isi_journals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Util\doctorat\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E442D789-9B00-4998-8715-C84EDD463593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B33A1A9-7BA1-4405-833C-A63B6C16F2A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Web of Science Category</t>
   </si>
@@ -42,9 +42,6 @@
     <t>COMPUTER SCIENCE, INFORMATION SYSTEMS</t>
   </si>
   <si>
-    <t xml:space="preserve">  JOURNAL OF INFORMATION</t>
-  </si>
-  <si>
     <t>0165-5515</t>
   </si>
   <si>
@@ -211,6 +208,12 @@
   </si>
   <si>
     <t>no info here</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/toc/JIS/0/0?pageSize=20&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>JOURNAL OF INFORMATION SCIENCE</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +253,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -304,6 +313,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -588,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,45 +629,48 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="E4" s="2">
         <v>74</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
         <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -666,25 +681,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -695,25 +710,25 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>91</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -724,25 +739,25 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -753,28 +768,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2">
         <v>12</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -785,60 +800,60 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="2">
         <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="2">
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>133</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="2" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -849,25 +864,25 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>139</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2">
         <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="2" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -875,28 +890,28 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="2">
         <v>76</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2">
         <v>12</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -904,28 +919,28 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E13" s="2">
         <v>87</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2">
         <v>15</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,28 +948,28 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E14" s="2">
         <v>103</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="2">
         <v>8</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -976,8 +991,9 @@
     <hyperlink ref="H13" r:id="rId15" xr:uid="{15A2BDEF-ABA6-49E1-9D6B-35736AC1E762}"/>
     <hyperlink ref="I13" r:id="rId16" xr:uid="{8A400415-7994-4FDE-ABB0-4828D72147BE}"/>
     <hyperlink ref="I14" r:id="rId17" xr:uid="{0E0AC167-9C28-4347-9C29-6B9EFB8D47B6}"/>
+    <hyperlink ref="J4" r:id="rId18" xr:uid="{30EE9E30-0593-4F8B-B6BB-AC6E7D34CD84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>